--- a/progressbypushkar.xlsx
+++ b/progressbypushkar.xlsx
@@ -20,12 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t xml:space="preserve">DATE </t>
   </si>
   <si>
     <t xml:space="preserve">WORK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31-1-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changed pom.xml,Created Student Repo,Student Model,Controller Error running TestApplication.java</t>
   </si>
 </sst>
 </file>
@@ -40,6 +46,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -125,15 +132,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.3877551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.0102040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -152,6 +162,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/progressbypushkar.xlsx
+++ b/progressbypushkar.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t xml:space="preserve">DATE </t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t xml:space="preserve">Changed pom.xml,Created Student Repo,Student Model,Controller Error running TestApplication.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-2-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error corrected in the file and changed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-2-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error in jdbc communication link failure</t>
   </si>
 </sst>
 </file>
@@ -132,18 +144,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.3877551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.0102040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.5357142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.7040816326531"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -168,6 +178,22 @@
       </c>
       <c r="B5" s="0" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/progressbypushkar.xlsx
+++ b/progressbypushkar.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t xml:space="preserve">DATE </t>
   </si>
@@ -34,16 +34,22 @@
     <t xml:space="preserve">Changed pom.xml,Created Student Repo,Student Model,Controller Error running TestApplication.java</t>
   </si>
   <si>
-    <t xml:space="preserve">2-2-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error corrected in the file and changed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-2-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error in jdbc communication link failure</t>
+    <t xml:space="preserve">1-2-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project error application properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-2-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server port error xampp error resolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-2-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project completed successfully running on Postman </t>
   </si>
 </sst>
 </file>
@@ -144,10 +150,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -196,6 +202,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
